--- a/Sasta/src/main/java/com/Sasta/CommonData/Sasta.xlsx
+++ b/Sasta/src/main/java/com/Sasta/CommonData/Sasta.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19380" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IOMaleDelete" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="shopByCategoryMouseHoverDelete" sheetId="13" r:id="rId13"/>
     <sheet name="shopByCategoryDelete" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -326,14 +327,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,346 +336,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -688,251 +353,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -941,57 +364,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1253,26 +629,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="16.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="27.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1323,22 +699,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1360,25 +734,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="17.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="54.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="54.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1411,26 +783,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="16.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="15.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="22.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="23.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1469,26 +839,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="16.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="28.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1527,25 +895,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="15.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="35.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="36.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1578,28 +944,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="15.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="14.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="17.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="20.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1650,29 +1014,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="17.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="42.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="29.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="22.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1730,30 +1092,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="21.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="15.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="22.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1816,32 +1176,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="26.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="17.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="33.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="18.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="21.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="31.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1916,33 +1274,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="18.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="10.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="15.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="21.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="45.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="13.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="36.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="36.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2023,29 +1379,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="47.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="13.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="11.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="25.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="21.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="25.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2102,27 +1456,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="14.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="11.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="19.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="20.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2173,22 +1525,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2203,6 +1553,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>